--- a/Naming convention.xlsx
+++ b/Naming convention.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dweepa/Documents/CubeBio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77E63783-8399-3B40-B24E-8587614BA1A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50007F7A-1677-6A4C-9326-0CE1C3EE80F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{C76CF184-0CFE-A544-B34F-2AA1B6AA8AE8}"/>
   </bookViews>
@@ -30,6 +30,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Format of output</t>
+  </si>
+  <si>
+    <t>Embedding name</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,12 +393,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF884E7-A500-884F-A0CA-515B0987413C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>